--- a/fuentes/contenidos/grado09/guion07/Escaleta CN_09_07_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion07/Escaleta CN_09_07_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\Aulaplaneta All\Trabajos de editor\EDITOR\ESCALETAS\Escaletas  grupo  3\CN_09_07_CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado09\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1109,6 +1109,33 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,33 +1176,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,94 +1513,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="94" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="E1" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="91" t="s">
+      <c r="H1" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="91" t="s">
+      <c r="I1" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="95" t="s">
+      <c r="K1" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="101" t="s">
+      <c r="M1" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="101"/>
-      <c r="O1" s="102" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="102" t="s">
+      <c r="P1" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="99" t="s">
+      <c r="Q1" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="104" t="s">
+      <c r="R1" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="99" t="s">
+      <c r="S1" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="97" t="s">
+      <c r="T1" s="83" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="99" t="s">
+      <c r="U1" s="85" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="84"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="93"/>
       <c r="M2" s="14" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="105"/>
-      <c r="S2" s="100"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="100"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="86"/>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="O40" s="19"/>
       <c r="P40" s="40" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q40" s="68">
         <v>6</v>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q44" s="69">
         <v>6</v>
@@ -4485,14 +4485,6 @@
   </sheetData>
   <autoFilter ref="A2:U44"/>
   <mergeCells count="20">
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4505,6 +4497,14 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O22" r:id="rId1" display="http://www.paleontologyatumar.files.wordpress.com/2008/08/microfosiles_108-ok-22-24.pdf"/>

--- a/fuentes/contenidos/grado09/guion07/Escaleta CN_09_07_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion07/Escaleta CN_09_07_CO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\German\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado09\guion07\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mpgarcia\Desktop\CienciasNaturales\fuentes\contenidos\grado09\guion07\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1109,6 +1109,48 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1134,48 +1176,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1485,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="E16" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="41" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,94 +1513,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="13" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="B1" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="98" t="s">
+      <c r="C1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="96" t="s">
+      <c r="E1" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="L1" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="87" t="s">
+      <c r="M1" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="88" t="s">
+      <c r="N1" s="101"/>
+      <c r="O1" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="P1" s="88" t="s">
+      <c r="P1" s="102" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="85" t="s">
+      <c r="Q1" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="R1" s="90" t="s">
+      <c r="R1" s="104" t="s">
         <v>87</v>
       </c>
-      <c r="S1" s="85" t="s">
+      <c r="S1" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="T1" s="97" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="85" t="s">
+      <c r="U1" s="99" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="13" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="97"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="97"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="93"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="93"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="84"/>
       <c r="M2" s="14" t="s">
         <v>91</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="O2" s="89"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="86"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="100"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="100"/>
     </row>
     <row r="3" spans="1:21" s="13" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47" t="s">
@@ -4485,6 +4485,14 @@
   </sheetData>
   <autoFilter ref="A2:U44"/>
   <mergeCells count="20">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="S1:S2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
@@ -4497,14 +4505,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="S1:S2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O22" r:id="rId1" display="http://www.paleontologyatumar.files.wordpress.com/2008/08/microfosiles_108-ok-22-24.pdf"/>
